--- a/Resnet.xlsx
+++ b/Resnet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhus\Desktop\ATML-PA0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD84FE8-418C-406A-9AF3-848F1507ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C21E36-CBCB-4100-9948-942DD8D02A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A61C3719-6598-4C9B-9DED-9890D0F684B9}"/>
   </bookViews>
@@ -149,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -295,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E211B60D-E635-4D2B-BFB1-9DCE9E7B00BA}">
   <dimension ref="B2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,25 +1024,85 @@
       <c r="B43">
         <v>1</v>
       </c>
+      <c r="C43">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="E43">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.81850000000000001</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2</v>
       </c>
+      <c r="C44">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="E44">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.84819999999999995</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
+      <c r="C45">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="E45">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.84119999999999995</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
+      <c r="C46">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="E46">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.85299999999999998</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="E47">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.85629999999999995</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1071,25 +1131,85 @@
       <c r="B50">
         <v>1</v>
       </c>
+      <c r="C50">
+        <v>23.8095</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E50">
+        <v>14.8177</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.21149999999999999</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2</v>
       </c>
+      <c r="C51">
+        <v>12.491899999999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="E51">
+        <v>10.504</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.25269999999999998</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3</v>
       </c>
+      <c r="C52">
+        <v>6.7194000000000003</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.3231</v>
+      </c>
+      <c r="E52">
+        <v>6.1345000000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.26640000000000003</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
+      <c r="C53">
+        <v>4.3291000000000004</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.3891</v>
+      </c>
+      <c r="E53">
+        <v>3.1865999999999999</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.4516</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>5</v>
+      </c>
+      <c r="C54">
+        <v>4.2664999999999997</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E54">
+        <v>2.5594999999999999</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.45440000000000003</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -1118,25 +1238,85 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="C57">
+        <v>0.63460000000000005</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E57">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.83550000000000002</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
+      <c r="C58">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="E58">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.83909999999999996</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3</v>
       </c>
+      <c r="C59">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.83860000000000001</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.86550000000000005</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.4355</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="E61">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.80649999999999999</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -1165,25 +1345,85 @@
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>14.144</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="E64">
+        <v>13.6297</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>6.4648000000000003</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.3362</v>
+      </c>
+      <c r="E65">
+        <v>7.8033999999999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>5.0835999999999997</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="E66">
+        <v>6.5278999999999998</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.29049999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>4.4748999999999999</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="E67">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.40350000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5</v>
+      </c>
+      <c r="C68">
+        <v>4.5319000000000003</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.4073</v>
+      </c>
+      <c r="E68">
+        <v>5.9702999999999999</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.36449999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Resnet.xlsx
+++ b/Resnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhus\Desktop\ATML-PA0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadusman/Library/CloudStorage/GoogleDrive-muh.usman5464@gmail.com/My Drive/LUMS/CS 6304/Assignments/PA0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C21E36-CBCB-4100-9948-942DD8D02A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01145CF-6AAD-7C40-8874-86B581242DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A61C3719-6598-4C9B-9DED-9890D0F684B9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A61C3719-6598-4C9B-9DED-9890D0F684B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,22 +448,22 @@
   <dimension ref="B2:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0.81910000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.83660000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0.83120000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.82969999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -565,12 +565,12 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0.4924</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0.4637</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>0.45050000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>4</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.49869999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>5</v>
       </c>
@@ -672,12 +672,12 @@
         <v>0.51439999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0.2888</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0.27229999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -779,12 +779,12 @@
         <v>0.30869999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0.21279999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0.21340000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>4</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0.22509999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>5</v>
       </c>
@@ -886,12 +886,12 @@
         <v>0.23080000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>2</v>
       </c>
@@ -908,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>2</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0.74309999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>3</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0.74609999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>4</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0.75650000000000006</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>5</v>
       </c>
@@ -993,17 +993,17 @@
         <v>0.75849999999999995</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0.81850000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0.84819999999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>0.84119999999999995</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>5</v>
       </c>
@@ -1105,12 +1105,12 @@
         <v>0.85629999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.21149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>2</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0.25269999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>3</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0.26640000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>4</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0.4516</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>5</v>
       </c>
@@ -1212,12 +1212,12 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0.83550000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>2</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0.83909999999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>3</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.86550000000000005</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>5</v>
       </c>
@@ -1319,12 +1319,12 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>1</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0.1502</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>2</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>3</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.29049999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0.40350000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>5</v>
       </c>
